--- a/data/technology_patents/files/pct_total_c.xlsx
+++ b/data/technology_patents/files/pct_total_c.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F06DE44D-B502-B54F-9B28-19D2C5966108}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CBC623-F4E3-E742-837C-C0B6D117DC75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19200" xr2:uid="{66E282A6-0FD7-8E47-BDAC-49350E4DE07B}"/>
+    <workbookView xWindow="16640" yWindow="500" windowWidth="19200" windowHeight="19200" xr2:uid="{66E282A6-0FD7-8E47-BDAC-49350E4DE07B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4C2D61-CCFD-A34C-9071-FB6A597523F9}">
   <dimension ref="A1:C1901"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A873" workbookViewId="0">
+      <selection activeCell="A898" sqref="A898"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/technology_patents/files/pct_total_c.xlsx
+++ b/data/technology_patents/files/pct_total_c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CBC623-F4E3-E742-837C-C0B6D117DC75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126F2E78-0F4C-0849-A7A1-54ABC0736C8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16640" yWindow="500" windowWidth="19200" windowHeight="19200" xr2:uid="{66E282A6-0FD7-8E47-BDAC-49350E4DE07B}"/>
   </bookViews>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4C2D61-CCFD-A34C-9071-FB6A597523F9}">
   <dimension ref="A1:C1901"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A873" workbookViewId="0">
-      <selection activeCell="A898" sqref="A898"/>
+    <sheetView tabSelected="1" topLeftCell="A872" workbookViewId="0">
+      <selection activeCell="E907" sqref="E907"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/technology_patents/files/pct_total_c.xlsx
+++ b/data/technology_patents/files/pct_total_c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126F2E78-0F4C-0849-A7A1-54ABC0736C8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77BFD17-71F0-234C-9A65-2624D00D31F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16640" yWindow="500" windowWidth="19200" windowHeight="19200" xr2:uid="{66E282A6-0FD7-8E47-BDAC-49350E4DE07B}"/>
   </bookViews>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4C2D61-CCFD-A34C-9071-FB6A597523F9}">
   <dimension ref="A1:C1901"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A872" workbookViewId="0">
-      <selection activeCell="E907" sqref="E907"/>
+    <sheetView tabSelected="1" topLeftCell="A968" workbookViewId="0">
+      <selection activeCell="C992" sqref="C992"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8677,9 +8677,6 @@
       <c r="B725">
         <v>2000</v>
       </c>
-      <c r="C725" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
@@ -8710,9 +8707,6 @@
       <c r="B728">
         <v>2003</v>
       </c>
-      <c r="C728" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
@@ -8743,9 +8737,6 @@
       <c r="B731">
         <v>2006</v>
       </c>
-      <c r="C731" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
@@ -9623,9 +9614,6 @@
       <c r="B811">
         <v>2010</v>
       </c>
-      <c r="C811" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
@@ -11592,9 +11580,6 @@
       <c r="B990">
         <v>1999</v>
       </c>
-      <c r="C990" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
@@ -11603,9 +11588,6 @@
       <c r="B991">
         <v>2000</v>
       </c>
-      <c r="C991" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
@@ -11614,9 +11596,6 @@
       <c r="B992">
         <v>2001</v>
       </c>
-      <c r="C992" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
@@ -11625,9 +11604,6 @@
       <c r="B993">
         <v>2002</v>
       </c>
-      <c r="C993" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
@@ -11636,9 +11612,6 @@
       <c r="B994">
         <v>2003</v>
       </c>
-      <c r="C994" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
@@ -11647,9 +11620,6 @@
       <c r="B995">
         <v>2004</v>
       </c>
-      <c r="C995" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
@@ -11658,9 +11628,6 @@
       <c r="B996">
         <v>2005</v>
       </c>
-      <c r="C996" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
@@ -11669,9 +11636,6 @@
       <c r="B997">
         <v>2006</v>
       </c>
-      <c r="C997" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
@@ -11680,9 +11644,6 @@
       <c r="B998">
         <v>2007</v>
       </c>
-      <c r="C998" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
@@ -11691,9 +11652,6 @@
       <c r="B999">
         <v>2008</v>
       </c>
-      <c r="C999" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
@@ -11702,9 +11660,6 @@
       <c r="B1000">
         <v>2009</v>
       </c>
-      <c r="C1000" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
@@ -11713,9 +11668,6 @@
       <c r="B1001">
         <v>2010</v>
       </c>
-      <c r="C1001" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
@@ -11735,9 +11687,6 @@
       <c r="B1003">
         <v>2012</v>
       </c>
-      <c r="C1003" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
@@ -11746,9 +11695,6 @@
       <c r="B1004">
         <v>2013</v>
       </c>
-      <c r="C1004" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
@@ -11757,9 +11703,6 @@
       <c r="B1005">
         <v>2014</v>
       </c>
-      <c r="C1005" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
@@ -11768,9 +11711,6 @@
       <c r="B1006">
         <v>2015</v>
       </c>
-      <c r="C1006" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
@@ -11779,9 +11719,6 @@
       <c r="B1007">
         <v>2016</v>
       </c>
-      <c r="C1007" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
@@ -11790,9 +11727,6 @@
       <c r="B1008">
         <v>2017</v>
       </c>
-      <c r="C1008" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
@@ -11867,9 +11801,6 @@
       <c r="B1015">
         <v>2005</v>
       </c>
-      <c r="C1015" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
@@ -12263,9 +12194,6 @@
       <c r="B1051">
         <v>2003</v>
       </c>
-      <c r="C1051" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
@@ -12285,9 +12213,6 @@
       <c r="B1053">
         <v>2005</v>
       </c>
-      <c r="C1053" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
@@ -12340,9 +12265,6 @@
       <c r="B1058">
         <v>2010</v>
       </c>
-      <c r="C1058" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
@@ -12670,9 +12592,6 @@
       <c r="B1088">
         <v>2002</v>
       </c>
-      <c r="C1088" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
@@ -12791,9 +12710,6 @@
       <c r="B1099">
         <v>2013</v>
       </c>
-      <c r="C1099" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
@@ -13682,9 +13598,6 @@
       <c r="B1180">
         <v>1999</v>
       </c>
-      <c r="C1180" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
@@ -13693,9 +13606,6 @@
       <c r="B1181">
         <v>2000</v>
       </c>
-      <c r="C1181" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
@@ -13726,9 +13636,6 @@
       <c r="B1184">
         <v>2003</v>
       </c>
-      <c r="C1184" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
@@ -13825,9 +13732,6 @@
       <c r="B1193">
         <v>2012</v>
       </c>
-      <c r="C1193" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
@@ -13847,9 +13751,6 @@
       <c r="B1195">
         <v>2014</v>
       </c>
-      <c r="C1195" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
@@ -13935,9 +13836,6 @@
       <c r="B1203">
         <v>2003</v>
       </c>
-      <c r="C1203" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
@@ -14518,9 +14416,6 @@
       <c r="B1256">
         <v>1999</v>
       </c>
-      <c r="C1256" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
@@ -14540,9 +14435,6 @@
       <c r="B1258">
         <v>2001</v>
       </c>
-      <c r="C1258" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
@@ -14727,9 +14619,6 @@
       <c r="B1275">
         <v>1999</v>
       </c>
-      <c r="C1275" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
@@ -14881,9 +14770,6 @@
       <c r="B1289">
         <v>2013</v>
       </c>
-      <c r="C1289" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
@@ -16190,9 +16076,6 @@
       <c r="B1408">
         <v>1999</v>
       </c>
-      <c r="C1408" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
@@ -16212,9 +16095,6 @@
       <c r="B1410">
         <v>2001</v>
       </c>
-      <c r="C1410" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
@@ -16223,9 +16103,6 @@
       <c r="B1411">
         <v>2002</v>
       </c>
-      <c r="C1411" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
@@ -16245,9 +16122,6 @@
       <c r="B1413">
         <v>2004</v>
       </c>
-      <c r="C1413" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
@@ -16256,9 +16130,6 @@
       <c r="B1414">
         <v>2005</v>
       </c>
-      <c r="C1414" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
@@ -16300,9 +16171,6 @@
       <c r="B1418">
         <v>2009</v>
       </c>
-      <c r="C1418" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
@@ -16729,9 +16597,6 @@
       <c r="B1457">
         <v>2010</v>
       </c>
-      <c r="C1457" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
@@ -16817,9 +16682,6 @@
       <c r="B1465">
         <v>1999</v>
       </c>
-      <c r="C1465" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
@@ -16828,9 +16690,6 @@
       <c r="B1466">
         <v>2000</v>
       </c>
-      <c r="C1466" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
@@ -16850,9 +16709,6 @@
       <c r="B1468">
         <v>2002</v>
       </c>
-      <c r="C1468" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
@@ -17455,9 +17311,6 @@
       <c r="B1523">
         <v>2000</v>
       </c>
-      <c r="C1523" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
@@ -17466,9 +17319,6 @@
       <c r="B1524">
         <v>2001</v>
       </c>
-      <c r="C1524" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
@@ -18720,9 +18570,6 @@
       <c r="B1638">
         <v>2001</v>
       </c>
-      <c r="C1638" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1639" t="s">
@@ -18797,9 +18644,6 @@
       <c r="B1645">
         <v>2008</v>
       </c>
-      <c r="C1645" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1646" t="s">
@@ -18841,9 +18685,6 @@
       <c r="B1649">
         <v>2012</v>
       </c>
-      <c r="C1649" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1650" t="s">
@@ -19952,9 +19793,6 @@
       <c r="B1750">
         <v>1999</v>
       </c>
-      <c r="C1750" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1751" t="s">
@@ -19963,9 +19801,6 @@
       <c r="B1751">
         <v>2000</v>
       </c>
-      <c r="C1751" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1752" t="s">
@@ -21096,9 +20931,6 @@
       <c r="B1854">
         <v>2008</v>
       </c>
-      <c r="C1854" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1855" t="s">
@@ -21481,9 +21313,6 @@
       <c r="B1889">
         <v>2005</v>
       </c>
-      <c r="C1889" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1890" t="s">
@@ -21492,9 +21321,6 @@
       <c r="B1890">
         <v>2006</v>
       </c>
-      <c r="C1890" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1891" t="s">
@@ -21502,9 +21328,6 @@
       </c>
       <c r="B1891">
         <v>2007</v>
-      </c>
-      <c r="C1891" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="1892" spans="1:3" x14ac:dyDescent="0.2">
